--- a/model_results.xlsx
+++ b/model_results.xlsx
@@ -475,19 +475,19 @@
         <v>0.7515657620041754</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8935595173798372</v>
+        <v>0.8935503046681088</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5964769923741461</v>
+        <v>0.6003153762125299</v>
       </c>
       <c r="E2" t="n">
         <v>0.5694071905584623</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5762483635459746</v>
+        <v>0.5768564855826681</v>
       </c>
       <c r="G2" t="n">
-        <v>0.626521685147485</v>
+        <v>0.6264425701451174</v>
       </c>
     </row>
     <row r="3">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9206680584551148</v>
+        <v>0.918580375782881</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9905882961484146</v>
+        <v>0.9912298479205772</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8608084023671336</v>
+        <v>0.8564952053366687</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8546160765705612</v>
+        <v>0.8450922670467517</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8550549211686684</v>
+        <v>0.8475704606139389</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8827683402843287</v>
+        <v>0.8794146153957627</v>
       </c>
     </row>
   </sheetData>
